--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2442292.026341563</v>
+        <v>2413038.99882497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931184</v>
+        <v>2731752.266931185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9103798.291951345</v>
+        <v>9103798.291951343</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31.4472147932186</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>305.3497938902258</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>90.02575748609793</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>180.0375126570867</v>
+        <v>232.1480080156236</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>4.080626385647451</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.553842565068717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>196.8405671533554</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1181,16 +1181,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>186.0190921871973</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>20.48699093885593</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.5185571033089</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U11" t="n">
         <v>251.11582180088</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>137.4760541040027</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>169.6400988655871</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>22.59284928855987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H13" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>49.15408494929461</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>251.11582180088</v>
       </c>
       <c r="V14" t="n">
-        <v>127.6612566572532</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>172.6837002464335</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H16" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I16" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S16" t="n">
-        <v>89.36828488054867</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>71.86899356678866</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.6542589176191</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>99.71884268366318</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>182.6428398505988</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.25750671770936</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>161.0619476505412</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>235.8725802071996</v>
+        <v>232.9769539509554</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7023003289308</v>
+        <v>83.18108794539243</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>100.403364440875</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>185.8199970437846</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H23" t="n">
-        <v>136.1537375235364</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
         <v>99.71884268366318</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>44.32324317096032</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T25" t="n">
-        <v>222.4394153930256</v>
+        <v>45.4718845081669</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>265.0513729654585</v>
+        <v>160.8743213743341</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>59.59435834723345</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>81.57595608560105</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>36.62068688960056</v>
       </c>
       <c r="H29" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>176.9355726937873</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>207.3174737140591</v>
+        <v>250.3573599417677</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H32" t="n">
-        <v>78.40693046604025</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
         <v>99.71884268366318</v>
@@ -3080,7 +3080,7 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5197786803569</v>
+        <v>6.924679874902094</v>
       </c>
       <c r="U32" t="n">
         <v>251.11582180088</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>166.7023003289308</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>37.69271281871249</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>199.3671935509833</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>88.99678061636479</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,10 +3281,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H35" t="n">
-        <v>151.1949899991553</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.11582180088</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.52485854392424</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>150.7696444085454</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>28.22690465756765</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.4298486781792</v>
       </c>
       <c r="H38" t="n">
-        <v>310.0528293142925</v>
+        <v>93.45498952382611</v>
       </c>
       <c r="I38" t="n">
         <v>99.71884268366318</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>169.7880739901891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I40" t="n">
-        <v>17.49104425885783</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>218.8047983304041</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>30.05977310295311</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.4298486781792</v>
+        <v>208.8347498727245</v>
       </c>
       <c r="H41" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,10 +3834,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H42" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I42" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S42" t="n">
         <v>143.1316361901922</v>
@@ -3901,25 +3901,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2487377730621</v>
+        <v>169.0819596393249</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.21633148062508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>6.121208283684107</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3992,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H44" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U44" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>51.47614731549186</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,10 +4071,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H45" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I45" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S45" t="n">
         <v>143.1316361901922</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>136.456668163147</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>106.1436139196726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.115529941396</v>
+        <v>2067.843998914936</v>
       </c>
       <c r="W5" t="n">
-        <v>2339.115529941396</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="X5" t="n">
-        <v>1965.649771680316</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y5" t="n">
-        <v>1965.649771680316</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
         <v>665.1105362747051</v>
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4683,7 +4683,7 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
         <v>1364.473611002105</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>694.5902202260688</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="X7" t="n">
-        <v>58.54282279518134</v>
+        <v>467.2820328946706</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>273.640742341437</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.825876242508</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.057220972394</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1255.591462711315</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355028</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883532</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726834</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
@@ -5051,13 +5051,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N11" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O11" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q11" t="n">
         <v>4263.177005716608</v>
@@ -5066,22 +5066,22 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S11" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T11" t="n">
-        <v>4293.466041325257</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U11" t="n">
-        <v>4039.813696071843</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V11" t="n">
-        <v>3708.750808728272</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W11" t="n">
-        <v>3355.982153458157</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X11" t="n">
-        <v>3217.117452343003</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="Y11" t="n">
         <v>2826.978120367191</v>
@@ -5121,22 +5121,22 @@
         <v>104.0729930803638</v>
       </c>
       <c r="K12" t="n">
-        <v>213.3407931253903</v>
+        <v>475.1613777678431</v>
       </c>
       <c r="L12" t="n">
-        <v>773.7193177755636</v>
+        <v>668.4079605675919</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.633846335181</v>
+        <v>935.9561429163174</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.389894738874</v>
+        <v>1676.261141920128</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.208660255169</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P12" t="n">
-        <v>2514.163361684663</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q12" t="n">
         <v>2634.034907031697</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.8728983214916</v>
+        <v>691.1834383779716</v>
       </c>
       <c r="C13" t="n">
-        <v>407.8728983214916</v>
+        <v>522.2472554500647</v>
       </c>
       <c r="D13" t="n">
-        <v>385.0518384340573</v>
+        <v>372.130616037729</v>
       </c>
       <c r="E13" t="n">
-        <v>385.0518384340573</v>
+        <v>372.130616037729</v>
       </c>
       <c r="F13" t="n">
-        <v>238.161890936147</v>
+        <v>372.130616037729</v>
       </c>
       <c r="G13" t="n">
-        <v>238.161890936147</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H13" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I13" t="n">
         <v>85.86932082650513</v>
@@ -5224,25 +5224,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="S13" t="n">
-        <v>1081.341306537812</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T13" t="n">
-        <v>856.655028363039</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U13" t="n">
-        <v>856.655028363039</v>
+        <v>1235.285096620819</v>
       </c>
       <c r="V13" t="n">
-        <v>856.655028363039</v>
+        <v>980.6006084149321</v>
       </c>
       <c r="W13" t="n">
-        <v>856.655028363039</v>
+        <v>691.1834383779716</v>
       </c>
       <c r="X13" t="n">
-        <v>628.6654774650217</v>
+        <v>691.1834383779716</v>
       </c>
       <c r="Y13" t="n">
-        <v>407.8728983214916</v>
+        <v>691.1834383779716</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2440.378280303069</v>
+        <v>2026.467500507155</v>
       </c>
       <c r="C14" t="n">
-        <v>2071.415763362658</v>
+        <v>1657.504983566743</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.150064755907</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.361812157663</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F14" t="n">
-        <v>916.3759073680556</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G14" t="n">
-        <v>499.78010062242</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H14" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I14" t="n">
         <v>85.86932082650513</v>
@@ -5312,16 +5312,16 @@
         <v>3682.163298198641</v>
       </c>
       <c r="V14" t="n">
-        <v>3553.212533898386</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W14" t="n">
-        <v>3200.443878628271</v>
+        <v>3176.672430808168</v>
       </c>
       <c r="X14" t="n">
-        <v>2826.978120367191</v>
+        <v>2803.206672547088</v>
       </c>
       <c r="Y14" t="n">
-        <v>2826.978120367191</v>
+        <v>2413.067340571276</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>475.1613777678431</v>
       </c>
       <c r="L15" t="n">
-        <v>668.4079605675919</v>
+        <v>1035.539902418016</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2744760147095</v>
+        <v>1741.454430977634</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.337445836166</v>
+        <v>2199.515797732156</v>
       </c>
       <c r="O15" t="n">
-        <v>1897.156211352461</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q15" t="n">
         <v>2634.034907031697</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>650.8400652792594</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="C16" t="n">
-        <v>650.8400652792594</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="D16" t="n">
-        <v>650.8400652792594</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="E16" t="n">
-        <v>502.9269716968663</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="F16" t="n">
-        <v>356.0370241989559</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="G16" t="n">
-        <v>356.0370241989559</v>
+        <v>240.4341866220515</v>
       </c>
       <c r="H16" t="n">
-        <v>203.744454089314</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="I16" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J16" t="n">
         <v>85.86932082650513</v>
@@ -5458,28 +5458,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R16" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S16" t="n">
-        <v>1194.664692649855</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T16" t="n">
-        <v>1194.664692649855</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="U16" t="n">
-        <v>905.5245534851463</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="V16" t="n">
-        <v>650.8400652792594</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="W16" t="n">
-        <v>650.8400652792594</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="X16" t="n">
-        <v>650.8400652792594</v>
+        <v>408.8203485704664</v>
       </c>
       <c r="Y16" t="n">
-        <v>650.8400652792594</v>
+        <v>408.8203485704664</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C17" t="n">
-        <v>2071.415763362658</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D17" t="n">
-        <v>1713.150064755907</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E17" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F17" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G17" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H17" t="n">
         <v>186.595424547377</v>
@@ -5525,7 +5525,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N17" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O17" t="n">
         <v>3467.276709192399</v>
@@ -5558,7 +5558,7 @@
         <v>2624.865997323876</v>
       </c>
       <c r="Y17" t="n">
-        <v>2440.378280303069</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2646.853706366316</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C18" t="n">
-        <v>2472.400677085189</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D18" t="n">
-        <v>2323.466267423938</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E18" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F18" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G18" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H18" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I18" t="n">
-        <v>1745.300455120066</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J18" t="n">
-        <v>1888.334252360929</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K18" t="n">
-        <v>2259.422637048408</v>
+        <v>475.1613777678431</v>
       </c>
       <c r="L18" t="n">
-        <v>2452.669219848157</v>
+        <v>668.4079605675919</v>
       </c>
       <c r="M18" t="n">
-        <v>2697.535735295275</v>
+        <v>1374.322489127209</v>
       </c>
       <c r="N18" t="n">
-        <v>3437.840734299086</v>
+        <v>2114.627488131021</v>
       </c>
       <c r="O18" t="n">
-        <v>4048.659499815381</v>
+        <v>2335.522557563353</v>
       </c>
       <c r="P18" t="n">
-        <v>4237.796702887544</v>
+        <v>2493.477258992847</v>
       </c>
       <c r="Q18" t="n">
-        <v>4293.466041325257</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R18" t="n">
-        <v>4288.697482204206</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S18" t="n">
-        <v>4144.120071911082</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T18" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U18" t="n">
-        <v>3720.070307316815</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V18" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W18" t="n">
-        <v>3230.680842356871</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X18" t="n">
-        <v>3022.829342151338</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y18" t="n">
-        <v>2815.069043386384</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>312.8304009924431</v>
+        <v>423.191665702827</v>
       </c>
       <c r="C19" t="n">
-        <v>312.8304009924431</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="D19" t="n">
-        <v>312.8304009924431</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="E19" t="n">
-        <v>164.9173074100499</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="F19" t="n">
-        <v>85.86932082650513</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="G19" t="n">
         <v>85.86932082650513</v>
@@ -5698,25 +5698,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="S19" t="n">
-        <v>1081.341306537812</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T19" t="n">
-        <v>856.655028363039</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U19" t="n">
-        <v>567.5148891983299</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V19" t="n">
-        <v>312.8304009924431</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="W19" t="n">
-        <v>312.8304009924431</v>
+        <v>995.5185174417318</v>
       </c>
       <c r="X19" t="n">
-        <v>312.8304009924431</v>
+        <v>767.5289665437144</v>
       </c>
       <c r="Y19" t="n">
-        <v>312.8304009924431</v>
+        <v>604.8401305330667</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>735.1103571385365</v>
       </c>
       <c r="F20" t="n">
-        <v>324.124452348929</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="G20" t="n">
-        <v>85.86932082650513</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H20" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I20" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K20" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L20" t="n">
         <v>1409.142484443882</v>
@@ -5765,10 +5765,10 @@
         <v>2838.872804512372</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P20" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q20" t="n">
         <v>4263.177005716608</v>
@@ -5835,19 +5835,19 @@
         <v>213.3407931253903</v>
       </c>
       <c r="L21" t="n">
-        <v>406.587375925139</v>
+        <v>773.7193177755636</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.501904484757</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N21" t="n">
-        <v>1378.25795288845</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O21" t="n">
-        <v>1897.156211352461</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q21" t="n">
         <v>2634.034907031697</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3682.11578317775</v>
+        <v>584.7723419545021</v>
       </c>
       <c r="C22" t="n">
-        <v>3682.11578317775</v>
+        <v>584.7723419545021</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.11578317775</v>
+        <v>434.6557025421663</v>
       </c>
       <c r="E22" t="n">
-        <v>3682.11578317775</v>
+        <v>434.6557025421663</v>
       </c>
       <c r="F22" t="n">
-        <v>3535.22583567984</v>
+        <v>287.7657550442559</v>
       </c>
       <c r="G22" t="n">
-        <v>3366.839673731425</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H22" t="n">
-        <v>3214.547103621783</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I22" t="n">
-        <v>3096.671970358974</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J22" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K22" t="n">
-        <v>3220.576739741752</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L22" t="n">
-        <v>3437.566376389569</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M22" t="n">
-        <v>3676.740647137148</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N22" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O22" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P22" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q22" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R22" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S22" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T22" t="n">
-        <v>4293.466041325257</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U22" t="n">
-        <v>4004.325902160548</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="V22" t="n">
-        <v>4004.325902160548</v>
+        <v>805.5649210980322</v>
       </c>
       <c r="W22" t="n">
-        <v>4004.325902160548</v>
+        <v>805.5649210980322</v>
       </c>
       <c r="X22" t="n">
-        <v>3902.90836232128</v>
+        <v>805.5649210980322</v>
       </c>
       <c r="Y22" t="n">
-        <v>3682.11578317775</v>
+        <v>584.7723419545021</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.126825283943</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C23" t="n">
-        <v>1479.164308343531</v>
+        <v>1660.42985857305</v>
       </c>
       <c r="D23" t="n">
-        <v>1120.898609736781</v>
+        <v>1302.1641599663</v>
       </c>
       <c r="E23" t="n">
-        <v>735.1103571385365</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="F23" t="n">
-        <v>324.124452348929</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G23" t="n">
-        <v>324.124452348929</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H23" t="n">
-        <v>186.595424547377</v>
+        <v>186.5954245473771</v>
       </c>
       <c r="I23" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L23" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M23" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712279</v>
       </c>
       <c r="N23" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O23" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P23" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q23" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R23" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S23" t="n">
-        <v>4148.461884543325</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T23" t="n">
-        <v>3935.815643452056</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U23" t="n">
-        <v>3682.163298198641</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V23" t="n">
         <v>3351.100410855071</v>
       </c>
       <c r="W23" t="n">
-        <v>2998.331755584956</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X23" t="n">
-        <v>2624.865997323876</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y23" t="n">
-        <v>2234.726665348065</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H24" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I24" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J24" t="n">
         <v>104.0729930803638</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1613777678431</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L24" t="n">
-        <v>668.4079605675919</v>
+        <v>773.7193177755636</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2744760147095</v>
+        <v>1143.932657774808</v>
       </c>
       <c r="N24" t="n">
-        <v>1601.615586789704</v>
+        <v>1884.237656778619</v>
       </c>
       <c r="O24" t="n">
-        <v>2212.434352305999</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q24" t="n">
         <v>2634.034907031697</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.7046098159722</v>
+        <v>404.9221431667478</v>
       </c>
       <c r="C25" t="n">
-        <v>711.7046098159722</v>
+        <v>235.9859602388409</v>
       </c>
       <c r="D25" t="n">
-        <v>666.9336571180324</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E25" t="n">
-        <v>519.0205635356393</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F25" t="n">
-        <v>372.130616037729</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G25" t="n">
-        <v>203.744454089314</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H25" t="n">
-        <v>203.744454089314</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I25" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J25" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K25" t="n">
         <v>212.046385895188</v>
@@ -6172,25 +6172,25 @@
         <v>1164.380438888763</v>
       </c>
       <c r="S25" t="n">
-        <v>1164.380438888763</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T25" t="n">
-        <v>939.6941607139895</v>
+        <v>914.854861474987</v>
       </c>
       <c r="U25" t="n">
-        <v>939.6941607139895</v>
+        <v>625.7147223102779</v>
       </c>
       <c r="V25" t="n">
-        <v>939.6941607139895</v>
+        <v>625.7147223102779</v>
       </c>
       <c r="W25" t="n">
-        <v>939.6941607139895</v>
+        <v>625.7147223102779</v>
       </c>
       <c r="X25" t="n">
-        <v>711.7046098159722</v>
+        <v>625.7147223102779</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.7046098159722</v>
+        <v>404.9221431667478</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2221.592583545023</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C26" t="n">
-        <v>1852.630066604611</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="D26" t="n">
-        <v>1494.36436799786</v>
+        <v>1489.861126677192</v>
       </c>
       <c r="E26" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F26" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G26" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H26" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I26" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J26" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K26" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L26" t="n">
         <v>1409.142484443882</v>
@@ -6236,7 +6236,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N26" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O26" t="n">
         <v>3467.276709192399</v>
@@ -6266,10 +6266,10 @@
         <v>2998.331755584956</v>
       </c>
       <c r="X26" t="n">
-        <v>2998.331755584956</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y26" t="n">
-        <v>2608.192423609144</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>104.0729930803638</v>
+        <v>154.7742625020657</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1613777678431</v>
+        <v>264.0420625470922</v>
       </c>
       <c r="L27" t="n">
-        <v>1035.539902418016</v>
+        <v>824.4205871972655</v>
       </c>
       <c r="M27" t="n">
-        <v>1410.505093516435</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N27" t="n">
-        <v>1676.261141920128</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O27" t="n">
-        <v>1897.156211352461</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q27" t="n">
         <v>2634.034907031697</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3325.254453870251</v>
+        <v>3528.100938361696</v>
       </c>
       <c r="C28" t="n">
-        <v>3325.254453870251</v>
+        <v>3359.164755433789</v>
       </c>
       <c r="D28" t="n">
-        <v>3325.254453870251</v>
+        <v>3359.164755433789</v>
       </c>
       <c r="E28" t="n">
-        <v>3325.254453870251</v>
+        <v>3359.164755433789</v>
       </c>
       <c r="F28" t="n">
-        <v>3265.058132307389</v>
+        <v>3212.274807935878</v>
       </c>
       <c r="G28" t="n">
-        <v>3096.671970358974</v>
+        <v>3212.274807935878</v>
       </c>
       <c r="H28" t="n">
-        <v>3096.671970358974</v>
+        <v>3212.274807935878</v>
       </c>
       <c r="I28" t="n">
-        <v>3096.671970358974</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J28" t="n">
         <v>3094.39967467307</v>
@@ -6412,22 +6412,22 @@
         <v>4089.871660384377</v>
       </c>
       <c r="T28" t="n">
-        <v>4089.871660384377</v>
+        <v>3865.185382209604</v>
       </c>
       <c r="U28" t="n">
-        <v>3800.731521219668</v>
+        <v>3865.185382209604</v>
       </c>
       <c r="V28" t="n">
-        <v>3546.047033013781</v>
+        <v>3610.500894003717</v>
       </c>
       <c r="W28" t="n">
-        <v>3546.047033013781</v>
+        <v>3610.500894003717</v>
       </c>
       <c r="X28" t="n">
-        <v>3546.047033013781</v>
+        <v>3610.500894003717</v>
       </c>
       <c r="Y28" t="n">
-        <v>3325.254453870251</v>
+        <v>3528.100938361696</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1923.056369836562</v>
+        <v>2060.773066375212</v>
       </c>
       <c r="C29" t="n">
-        <v>1554.09385289615</v>
+        <v>1691.810549434801</v>
       </c>
       <c r="D29" t="n">
-        <v>1195.8281542894</v>
+        <v>1333.54485082805</v>
       </c>
       <c r="E29" t="n">
-        <v>810.0399016911556</v>
+        <v>947.7565982298058</v>
       </c>
       <c r="F29" t="n">
-        <v>399.0539969015481</v>
+        <v>536.7706934401983</v>
       </c>
       <c r="G29" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H29" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I29" t="n">
         <v>85.86932082650513</v>
@@ -6464,7 +6464,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K29" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L29" t="n">
         <v>1409.142484443882</v>
@@ -6473,13 +6473,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N29" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O29" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P29" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q29" t="n">
         <v>4263.177005716608</v>
@@ -6491,22 +6491,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T29" t="n">
-        <v>3935.815643452056</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="U29" t="n">
-        <v>3757.09284275126</v>
+        <v>3894.809539289911</v>
       </c>
       <c r="V29" t="n">
-        <v>3426.02995540769</v>
+        <v>3563.74665194634</v>
       </c>
       <c r="W29" t="n">
-        <v>3073.261300137575</v>
+        <v>3210.977996676226</v>
       </c>
       <c r="X29" t="n">
-        <v>2699.795541876495</v>
+        <v>2837.512238415146</v>
       </c>
       <c r="Y29" t="n">
-        <v>2309.656209900684</v>
+        <v>2447.372906439334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366316</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.400677085189</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423938</v>
       </c>
       <c r="E30" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445368</v>
       </c>
       <c r="G30" t="n">
-        <v>221.0849523519937</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I30" t="n">
-        <v>85.86932082650513</v>
+        <v>1745.300455120066</v>
       </c>
       <c r="J30" t="n">
-        <v>104.0729930803638</v>
+        <v>1763.504127373925</v>
       </c>
       <c r="K30" t="n">
-        <v>213.3407931253903</v>
+        <v>2134.592512061404</v>
       </c>
       <c r="L30" t="n">
-        <v>773.7193177755636</v>
+        <v>2694.971036711577</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.633846335181</v>
+        <v>2939.837552158695</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.389894738874</v>
+        <v>3205.593600562388</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.208660255169</v>
+        <v>3816.412366078683</v>
       </c>
       <c r="P30" t="n">
-        <v>2514.163361684663</v>
+        <v>4029.820188029053</v>
       </c>
       <c r="Q30" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R30" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204206</v>
       </c>
       <c r="S30" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911082</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316815</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085073</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.680842356871</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151338</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386384</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3263.335857600976</v>
+        <v>3413.452497013312</v>
       </c>
       <c r="C31" t="n">
-        <v>3094.39967467307</v>
+        <v>3244.516314085405</v>
       </c>
       <c r="D31" t="n">
         <v>3094.39967467307</v>
@@ -6643,28 +6643,28 @@
         <v>4293.466041325257</v>
       </c>
       <c r="R31" t="n">
-        <v>4172.910792735327</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S31" t="n">
-        <v>4172.910792735327</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T31" t="n">
-        <v>3948.224514560554</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="U31" t="n">
-        <v>3948.224514560554</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="V31" t="n">
-        <v>3693.540026354667</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="W31" t="n">
-        <v>3484.128436744506</v>
+        <v>3815.893540987082</v>
       </c>
       <c r="X31" t="n">
-        <v>3484.128436744506</v>
+        <v>3815.893540987082</v>
       </c>
       <c r="Y31" t="n">
-        <v>3263.335857600976</v>
+        <v>3595.100961843552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1848.126825283943</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C32" t="n">
-        <v>1479.164308343531</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D32" t="n">
-        <v>1479.164308343531</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E32" t="n">
-        <v>1093.376055745287</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F32" t="n">
-        <v>682.3901509556795</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G32" t="n">
-        <v>265.794344210044</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H32" t="n">
         <v>186.595424547377</v>
@@ -6698,7 +6698,7 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J32" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K32" t="n">
         <v>780.2368617726829</v>
@@ -6710,7 +6710,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N32" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O32" t="n">
         <v>3467.276709192399</v>
@@ -6728,22 +6728,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T32" t="n">
-        <v>3935.815643452056</v>
+        <v>4141.46725840706</v>
       </c>
       <c r="U32" t="n">
-        <v>3682.163298198641</v>
+        <v>3887.814913153646</v>
       </c>
       <c r="V32" t="n">
-        <v>3351.100410855071</v>
+        <v>3556.752025810075</v>
       </c>
       <c r="W32" t="n">
-        <v>2998.331755584956</v>
+        <v>3203.983370539961</v>
       </c>
       <c r="X32" t="n">
-        <v>2624.865997323876</v>
+        <v>2830.517612278881</v>
       </c>
       <c r="Y32" t="n">
-        <v>2234.726665348065</v>
+        <v>2440.378280303069</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J33" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3407931253903</v>
+        <v>423.3128721936725</v>
       </c>
       <c r="L33" t="n">
-        <v>704.5905649568178</v>
+        <v>983.6913968438458</v>
       </c>
       <c r="M33" t="n">
-        <v>1410.505093516435</v>
+        <v>1228.557912290963</v>
       </c>
       <c r="N33" t="n">
-        <v>1676.261141920128</v>
+        <v>1494.313960694657</v>
       </c>
       <c r="O33" t="n">
-        <v>1897.156211352461</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q33" t="n">
         <v>2634.034907031697</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3565.195046143462</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="C34" t="n">
-        <v>3565.195046143462</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="D34" t="n">
-        <v>3415.078406731127</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="E34" t="n">
-        <v>3415.078406731127</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="F34" t="n">
-        <v>3415.078406731127</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="G34" t="n">
-        <v>3246.692244782711</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H34" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I34" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J34" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K34" t="n">
-        <v>3220.576739741752</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L34" t="n">
-        <v>3437.566376389569</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M34" t="n">
-        <v>3676.740647137148</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N34" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O34" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P34" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q34" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R34" t="n">
-        <v>4172.910792735327</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S34" t="n">
-        <v>4172.910792735327</v>
+        <v>1246.862240187064</v>
       </c>
       <c r="T34" t="n">
-        <v>3948.224514560554</v>
+        <v>1246.862240187064</v>
       </c>
       <c r="U34" t="n">
-        <v>3746.843510973702</v>
+        <v>957.7221010223544</v>
       </c>
       <c r="V34" t="n">
-        <v>3746.843510973702</v>
+        <v>703.0376128164676</v>
       </c>
       <c r="W34" t="n">
-        <v>3746.843510973702</v>
+        <v>703.0376128164676</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.843510973702</v>
+        <v>475.0480619184502</v>
       </c>
       <c r="Y34" t="n">
-        <v>3746.843510973702</v>
+        <v>254.2554827749201</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2179.189712627513</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C35" t="n">
-        <v>1810.227195687102</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D35" t="n">
-        <v>1451.961497080351</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E35" t="n">
-        <v>1066.173244482107</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F35" t="n">
-        <v>655.1873396924996</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G35" t="n">
-        <v>238.591532946864</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H35" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I35" t="n">
         <v>85.86932082650513</v>
@@ -6938,7 +6938,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K35" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L35" t="n">
         <v>1409.142484443882</v>
@@ -6947,7 +6947,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O35" t="n">
         <v>3467.276709192399</v>
@@ -6971,16 +6971,16 @@
         <v>3682.163298198641</v>
       </c>
       <c r="V35" t="n">
-        <v>3682.163298198641</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W35" t="n">
-        <v>3329.394642928527</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X35" t="n">
-        <v>2955.928884667447</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y35" t="n">
-        <v>2565.789552691635</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7017,13 @@
         <v>104.0729930803638</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1613777678431</v>
+        <v>352.1885551651347</v>
       </c>
       <c r="L36" t="n">
-        <v>899.0661423276903</v>
+        <v>912.567079815308</v>
       </c>
       <c r="M36" t="n">
-        <v>1143.932657774808</v>
+        <v>1618.481608374926</v>
       </c>
       <c r="N36" t="n">
         <v>1884.237656778619</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.8624492195089</v>
+        <v>3564.790670894433</v>
       </c>
       <c r="C37" t="n">
-        <v>466.926266291602</v>
+        <v>3395.854487966526</v>
       </c>
       <c r="D37" t="n">
-        <v>466.926266291602</v>
+        <v>3395.854487966526</v>
       </c>
       <c r="E37" t="n">
-        <v>408.8203485704664</v>
+        <v>3395.854487966526</v>
       </c>
       <c r="F37" t="n">
-        <v>408.8203485704664</v>
+        <v>3248.964540468616</v>
       </c>
       <c r="G37" t="n">
-        <v>240.4341866220515</v>
+        <v>3248.964540468616</v>
       </c>
       <c r="H37" t="n">
-        <v>88.1416165124096</v>
+        <v>3096.671970358974</v>
       </c>
       <c r="I37" t="n">
-        <v>88.1416165124096</v>
+        <v>3096.671970358974</v>
       </c>
       <c r="J37" t="n">
-        <v>85.86932082650513</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K37" t="n">
-        <v>212.046385895188</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0360225430045</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M37" t="n">
-        <v>668.2102932905834</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N37" t="n">
-        <v>907.1321508824185</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O37" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P37" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q37" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R37" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S37" t="n">
-        <v>1081.341306537812</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T37" t="n">
-        <v>856.655028363039</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="U37" t="n">
-        <v>856.655028363039</v>
+        <v>4040.26773824385</v>
       </c>
       <c r="V37" t="n">
-        <v>856.655028363039</v>
+        <v>3785.583250037963</v>
       </c>
       <c r="W37" t="n">
-        <v>856.655028363039</v>
+        <v>3785.583250037963</v>
       </c>
       <c r="X37" t="n">
-        <v>856.655028363039</v>
+        <v>3785.583250037963</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.8624492195089</v>
+        <v>3564.790670894433</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2029.392375513462</v>
+        <v>2221.592583545023</v>
       </c>
       <c r="C38" t="n">
-        <v>1660.42985857305</v>
+        <v>1852.630066604611</v>
       </c>
       <c r="D38" t="n">
-        <v>1302.1641599663</v>
+        <v>1494.36436799786</v>
       </c>
       <c r="E38" t="n">
-        <v>916.3759073680556</v>
+        <v>1108.576115399616</v>
       </c>
       <c r="F38" t="n">
-        <v>916.3759073680556</v>
+        <v>697.5902106100086</v>
       </c>
       <c r="G38" t="n">
-        <v>499.78010062242</v>
+        <v>280.9944038643731</v>
       </c>
       <c r="H38" t="n">
         <v>186.595424547377</v>
@@ -7172,10 +7172,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J38" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K38" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L38" t="n">
         <v>1409.142484443882</v>
@@ -7184,7 +7184,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N38" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O38" t="n">
         <v>3467.276709192399</v>
@@ -7211,13 +7211,13 @@
         <v>3351.100410855071</v>
       </c>
       <c r="W38" t="n">
-        <v>3179.597305814475</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X38" t="n">
-        <v>2806.131547553396</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2415.992215577584</v>
+        <v>2608.192423609144</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J39" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3407931253903</v>
+        <v>599.9915027548478</v>
       </c>
       <c r="L39" t="n">
-        <v>773.7193177755636</v>
+        <v>1160.370027405021</v>
       </c>
       <c r="M39" t="n">
-        <v>1018.585833222681</v>
+        <v>1866.284555964639</v>
       </c>
       <c r="N39" t="n">
-        <v>1601.615586789704</v>
+        <v>2132.040604368332</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.434352305999</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.389053735493</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q39" t="n">
         <v>2634.034907031697</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>424.2157743581557</v>
+        <v>553.9880213619642</v>
       </c>
       <c r="C40" t="n">
-        <v>424.2157743581557</v>
+        <v>385.0518384340573</v>
       </c>
       <c r="D40" t="n">
-        <v>424.2157743581557</v>
+        <v>385.0518384340573</v>
       </c>
       <c r="E40" t="n">
-        <v>424.2157743581557</v>
+        <v>385.0518384340573</v>
       </c>
       <c r="F40" t="n">
-        <v>424.2157743581557</v>
+        <v>238.161890936147</v>
       </c>
       <c r="G40" t="n">
-        <v>255.8296124097408</v>
+        <v>238.161890936147</v>
       </c>
       <c r="H40" t="n">
-        <v>103.5370423000989</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I40" t="n">
         <v>85.86932082650513</v>
@@ -7357,25 +7357,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="S40" t="n">
-        <v>1081.341306537812</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T40" t="n">
-        <v>1081.341306537812</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U40" t="n">
-        <v>1081.341306537812</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="V40" t="n">
-        <v>826.6568183319256</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="W40" t="n">
-        <v>826.6568183319256</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="X40" t="n">
-        <v>826.6568183319256</v>
+        <v>774.7806005054944</v>
       </c>
       <c r="Y40" t="n">
-        <v>605.8642391883955</v>
+        <v>553.9880213619642</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2101.779170537358</v>
+        <v>2234.726665348065</v>
       </c>
       <c r="C41" t="n">
-        <v>2071.415763362658</v>
+        <v>1865.764148407653</v>
       </c>
       <c r="D41" t="n">
-        <v>1713.150064755907</v>
+        <v>1507.498449800903</v>
       </c>
       <c r="E41" t="n">
-        <v>1327.361812157663</v>
+        <v>1121.710197202658</v>
       </c>
       <c r="F41" t="n">
-        <v>916.3759073680556</v>
+        <v>710.7242924130508</v>
       </c>
       <c r="G41" t="n">
         <v>499.78010062242</v>
@@ -7406,13 +7406,13 @@
         <v>186.595424547377</v>
       </c>
       <c r="I41" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J41" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726834</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7424,37 +7424,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O41" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P41" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q41" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R41" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S41" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T41" t="n">
-        <v>3935.815643452057</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U41" t="n">
-        <v>3935.815643452057</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V41" t="n">
-        <v>3604.752756108486</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W41" t="n">
-        <v>3251.984100838371</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X41" t="n">
-        <v>2878.518342577292</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y41" t="n">
-        <v>2488.37901060148</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="42">
@@ -7479,25 +7479,25 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H42" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I42" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J42" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K42" t="n">
-        <v>277.5430000347101</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L42" t="n">
-        <v>837.9215246848834</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M42" t="n">
-        <v>1543.836053244501</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N42" t="n">
         <v>1809.592101648194</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>407.1944388526523</v>
+        <v>3712.703764476826</v>
       </c>
       <c r="C43" t="n">
-        <v>238.2582559247454</v>
+        <v>3543.767581548919</v>
       </c>
       <c r="D43" t="n">
-        <v>88.14161651240961</v>
+        <v>3543.767581548919</v>
       </c>
       <c r="E43" t="n">
-        <v>88.14161651240961</v>
+        <v>3395.854487966526</v>
       </c>
       <c r="F43" t="n">
-        <v>88.14161651240961</v>
+        <v>3248.964540468616</v>
       </c>
       <c r="G43" t="n">
-        <v>88.14161651240961</v>
+        <v>3248.964540468616</v>
       </c>
       <c r="H43" t="n">
-        <v>88.14161651240961</v>
+        <v>3096.671970358974</v>
       </c>
       <c r="I43" t="n">
-        <v>88.14161651240961</v>
+        <v>3096.671970358974</v>
       </c>
       <c r="J43" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K43" t="n">
-        <v>212.046385895188</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L43" t="n">
-        <v>429.0360225430046</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M43" t="n">
-        <v>668.2102932905836</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N43" t="n">
-        <v>907.1321508824187</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O43" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P43" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q43" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R43" t="n">
-        <v>1164.380438888763</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="S43" t="n">
-        <v>1164.380438888763</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="T43" t="n">
-        <v>939.69416071399</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="U43" t="n">
-        <v>650.5540215492808</v>
+        <v>4002.120934513787</v>
       </c>
       <c r="V43" t="n">
-        <v>650.5540215492808</v>
+        <v>4002.120934513787</v>
       </c>
       <c r="W43" t="n">
-        <v>650.5540215492808</v>
+        <v>3712.703764476826</v>
       </c>
       <c r="X43" t="n">
-        <v>422.5644706512635</v>
+        <v>3712.703764476826</v>
       </c>
       <c r="Y43" t="n">
-        <v>407.1944388526523</v>
+        <v>3712.703764476826</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2060.773066375213</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C44" t="n">
-        <v>1691.810549434801</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D44" t="n">
-        <v>1333.544850828051</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E44" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F44" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G44" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H44" t="n">
         <v>186.595424547377</v>
       </c>
       <c r="I44" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
         <v>780.2368617726829</v>
@@ -7667,31 +7667,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q44" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R44" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S44" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T44" t="n">
-        <v>4148.461884543326</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U44" t="n">
-        <v>3894.809539289912</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V44" t="n">
-        <v>3563.746651946341</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W44" t="n">
-        <v>3210.977996676227</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X44" t="n">
-        <v>2837.512238415147</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y44" t="n">
-        <v>2447.372906439335</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7716,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H45" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I45" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J45" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K45" t="n">
         <v>213.3407931253903</v>
       </c>
       <c r="L45" t="n">
-        <v>438.0181292151898</v>
+        <v>773.7193177755636</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.932657774807</v>
+        <v>1018.585833222681</v>
       </c>
       <c r="N45" t="n">
-        <v>1884.237656778619</v>
+        <v>1758.890832226492</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.132726210951</v>
+        <v>2212.434352305999</v>
       </c>
       <c r="P45" t="n">
-        <v>2578.365568593983</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.034907031697</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C46" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D46" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E46" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F46" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G46" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H46" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I46" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J46" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K46" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L46" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M46" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N46" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O46" t="n">
         <v>1111.798861477226</v>
@@ -7825,31 +7825,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q46" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R46" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S46" t="n">
-        <v>1284.935687478693</v>
+        <v>1147.100669132079</v>
       </c>
       <c r="T46" t="n">
-        <v>1060.249409303919</v>
+        <v>1147.100669132079</v>
       </c>
       <c r="U46" t="n">
-        <v>771.1092701392101</v>
+        <v>857.96052996737</v>
       </c>
       <c r="V46" t="n">
-        <v>771.1092701392101</v>
+        <v>603.2760417614832</v>
       </c>
       <c r="W46" t="n">
-        <v>663.8934985031772</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X46" t="n">
-        <v>435.9039476051598</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="Y46" t="n">
-        <v>435.9039476051598</v>
+        <v>85.86932082650513</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>22.91077464808876</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.85071404981839</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>108.3908297149126</v>
+        <v>194.2477963139689</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,19 +9249,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>31.49747640673593</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>85.74576727387486</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>51.21340345626459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>301.0133222542208</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>126.6129540930573</v>
       </c>
       <c r="N24" t="n">
-        <v>426.85359835485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.21340345626459</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>131.4128036881831</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>56.01325305139011</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.85071404981839</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>86.00197381947225</v>
       </c>
       <c r="L33" t="n">
-        <v>301.013322254221</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>140.2502646866106</v>
       </c>
       <c r="L36" t="n">
-        <v>232.9880623839378</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>320.4784900639695</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>68.15676097356027</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>64.8507140498179</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>435.6910593532774</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599051</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>31.74823564651584</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.9984349971455</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>232.2550465744663</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>216.5978397904665</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.0226237296525</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I13" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>2.249572729045425</v>
@@ -23464,25 +23464,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2487377730621</v>
+        <v>237.0946528237675</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>200.0910018128817</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>176.5572684709795</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.1901522509225</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>153.8406618222485</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.2761111546426</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>203.5950988054547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>67.16354130522188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>150.7696444085454</v>
@@ -23938,25 +23938,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.52270570155355</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23978,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>176.5572684709796</v>
+        <v>179.4528947272238</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,16 +24139,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>83.52121238353836</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>125.3062909481622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>179.4528947272229</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,13 +24215,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>173.8990917907561</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>104.292229847252</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H25" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
         <v>2.249572729045425</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>176.9675308848587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>116.8789971068033</v>
+        <v>221.0560486979277</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,19 +24610,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82668967569779</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H28" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I28" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>137.0086972664938</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24692,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.4298486781792</v>
+        <v>375.8091617885786</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U29" t="n">
-        <v>74.18024910709275</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
         <v>201.5584371314712</v>
@@ -24895,10 +24895,10 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>79.2055246225319</v>
+        <v>36.1656383948233</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>231.6458988482522</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.5950988054548</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I34" t="n">
         <v>116.6963819301808</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S34" t="n">
-        <v>201.5584371314712</v>
+        <v>163.8657243127587</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U34" t="n">
-        <v>86.88154422207876</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276.2761111546428</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>158.8578393151372</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I35" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>88.90910410264493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2487377730621</v>
+        <v>258.0218331154944</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,13 +25400,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>216.5978397904664</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25451,10 +25451,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>179.4528947272239</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.20533767132298</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J40" t="n">
         <v>2.249572729045425</v>
@@ -25597,22 +25597,22 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>6.904857058633098</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>335.2131186680544</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>203.5950988054547</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7023003289308</v>
       </c>
       <c r="H43" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>116.6963819301808</v>
@@ -25837,22 +25837,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>117.1667781337372</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.3683218714697</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>375.8091617885777</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>276.276111154643</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H46" t="n">
         <v>150.7696444085454</v>
@@ -26044,7 +26044,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S46" t="n">
-        <v>201.5584371314712</v>
+        <v>65.10176896832417</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>180.3793844169184</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>763374.7614632263</v>
+        <v>763374.7614632264</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763374.7614632265</v>
+        <v>763374.7614632266</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763374.7614632265</v>
+        <v>763374.7614632264</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763374.7614632265</v>
+        <v>763374.7614632266</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763374.7614632265</v>
+        <v>763374.7614632264</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763374.7614632264</v>
+        <v>763374.7614632265</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763374.7614632266</v>
+        <v>763374.7614632264</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763374.7614632265</v>
+        <v>763374.7614632264</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
@@ -26320,40 +26320,40 @@
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>529237.9367007685</v>
+      </c>
+      <c r="F2" t="n">
+        <v>529237.9367007684</v>
+      </c>
+      <c r="G2" t="n">
+        <v>529237.9367007687</v>
+      </c>
+      <c r="H2" t="n">
+        <v>529237.9367007683</v>
+      </c>
+      <c r="I2" t="n">
+        <v>529237.9367007683</v>
+      </c>
+      <c r="J2" t="n">
+        <v>529237.9367007683</v>
+      </c>
+      <c r="K2" t="n">
+        <v>529237.9367007682</v>
+      </c>
+      <c r="L2" t="n">
+        <v>529237.9367007682</v>
+      </c>
+      <c r="M2" t="n">
         <v>529237.9367007688</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>529237.9367007685</v>
+      </c>
+      <c r="O2" t="n">
+        <v>529237.9367007688</v>
+      </c>
+      <c r="P2" t="n">
         <v>529237.9367007687</v>
-      </c>
-      <c r="G2" t="n">
-        <v>529237.9367007688</v>
-      </c>
-      <c r="H2" t="n">
-        <v>529237.9367007688</v>
-      </c>
-      <c r="I2" t="n">
-        <v>529237.9367007685</v>
-      </c>
-      <c r="J2" t="n">
-        <v>529237.9367007684</v>
-      </c>
-      <c r="K2" t="n">
-        <v>529237.9367007685</v>
-      </c>
-      <c r="L2" t="n">
-        <v>529237.9367007683</v>
-      </c>
-      <c r="M2" t="n">
-        <v>529237.9367007684</v>
-      </c>
-      <c r="N2" t="n">
-        <v>529237.9367007682</v>
-      </c>
-      <c r="O2" t="n">
-        <v>529237.9367007684</v>
-      </c>
-      <c r="P2" t="n">
-        <v>529237.9367007688</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.14232107859</v>
+        <v>99452.14232107856</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="F4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="G4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="H4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="I4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="J4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="K4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="L4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="M4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="N4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="O4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="P4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>80839.64176874656</v>
       </c>
       <c r="I5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874657</v>
       </c>
       <c r="J5" t="n">
         <v>80839.64176874656</v>
@@ -26506,10 +26506,10 @@
         <v>80839.64176874656</v>
       </c>
       <c r="O5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="P5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230471.2969558773</v>
+        <v>-234346.6323775715</v>
       </c>
       <c r="C6" t="n">
-        <v>359496.5822586672</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>359496.5822586672</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>46041.33068428424</v>
+        <v>42729.05833092805</v>
       </c>
       <c r="F6" t="n">
-        <v>435853.9863998536</v>
+        <v>432541.7140464974</v>
       </c>
       <c r="G6" t="n">
-        <v>435853.9863998537</v>
+        <v>432541.7140464977</v>
       </c>
       <c r="H6" t="n">
-        <v>435853.9863998537</v>
+        <v>432541.7140464973</v>
       </c>
       <c r="I6" t="n">
-        <v>435853.9863998535</v>
+        <v>432541.7140464972</v>
       </c>
       <c r="J6" t="n">
-        <v>259430.7672072605</v>
+        <v>256118.4948539043</v>
       </c>
       <c r="K6" t="n">
-        <v>435853.9863998535</v>
+        <v>432541.7140464972</v>
       </c>
       <c r="L6" t="n">
-        <v>435853.9863998533</v>
+        <v>432541.7140464972</v>
       </c>
       <c r="M6" t="n">
-        <v>336401.8440787748</v>
+        <v>333089.5717254192</v>
       </c>
       <c r="N6" t="n">
-        <v>435853.9863998531</v>
+        <v>432541.7140464975</v>
       </c>
       <c r="O6" t="n">
-        <v>435853.9863998534</v>
+        <v>432541.7140464978</v>
       </c>
       <c r="P6" t="n">
-        <v>435853.9863998537</v>
+        <v>432541.7140464976</v>
       </c>
     </row>
   </sheetData>
@@ -26774,10 +26774,10 @@
         <v>714.6310981927825</v>
       </c>
       <c r="O3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="P3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1073.366510331314</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.0792375767586</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.0792375767586</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.0792375767586</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>351.286626870262</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>49.33324773045712</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>89.80622269583937</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>147.7147458130482</v>
+        <v>95.60425045451129</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>208.0649125643714</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.0308107870261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>185.0898029189064</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>141.7331662829376</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>146.7598301597719</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>47.00444123328214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H41" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I41" t="n">
         <v>110.7570468867427</v>
@@ -34135,16 +34135,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L41" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M41" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N41" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O41" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P41" t="n">
         <v>413.125005865306</v>
@@ -34156,13 +34156,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S41" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T41" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H42" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I42" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J42" t="n">
         <v>145.2251743978371</v>
@@ -34217,13 +34217,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M42" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N42" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O42" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P42" t="n">
         <v>293.5246108784658</v>
@@ -34232,13 +34232,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R42" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S42" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T42" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U42" t="n">
         <v>0.1011270421970919</v>
@@ -34287,7 +34287,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J43" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K43" t="n">
         <v>149.7210727033403</v>
@@ -34311,16 +34311,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R43" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S43" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T43" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H44" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I44" t="n">
         <v>110.7570468867427</v>
@@ -34372,16 +34372,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L44" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M44" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N44" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O44" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P44" t="n">
         <v>413.125005865306</v>
@@ -34393,13 +34393,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S44" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T44" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H45" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I45" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J45" t="n">
         <v>145.2251743978371</v>
@@ -34454,13 +34454,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M45" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N45" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O45" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P45" t="n">
         <v>293.5246108784658</v>
@@ -34469,13 +34469,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R45" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S45" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T45" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U45" t="n">
         <v>0.1011270421970919</v>
@@ -34524,7 +34524,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J46" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K46" t="n">
         <v>149.7210727033403</v>
@@ -34548,16 +34548,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R46" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S46" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T46" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K12" t="n">
-        <v>110.3715151969964</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L12" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M12" t="n">
-        <v>713.044978343048</v>
+        <v>270.2506892411369</v>
       </c>
       <c r="N12" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O12" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P12" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.0823690374077</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>374.836752209575</v>
       </c>
       <c r="L15" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M15" t="n">
-        <v>247.3399145930481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N15" t="n">
-        <v>376.831282647936</v>
+        <v>462.6882492469923</v>
       </c>
       <c r="O15" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P15" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>144.4785830715792</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K18" t="n">
         <v>374.836752209575</v>
@@ -35969,19 +35969,19 @@
         <v>195.1985684845947</v>
       </c>
       <c r="M18" t="n">
-        <v>247.3399145930481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N18" t="n">
         <v>747.7828272765769</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P18" t="n">
-        <v>191.0476798708714</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.23165498758928</v>
+        <v>141.9774222614641</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>110.3715151969964</v>
       </c>
       <c r="L21" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M21" t="n">
-        <v>713.044978343048</v>
+        <v>298.5533180493127</v>
       </c>
       <c r="N21" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O21" t="n">
-        <v>524.1396550141525</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P21" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K24" t="n">
-        <v>374.836752209575</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L24" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M24" t="n">
-        <v>247.3399145930481</v>
+        <v>373.9528686861054</v>
       </c>
       <c r="N24" t="n">
-        <v>695.2940512878733</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O24" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.38754773117037</v>
+        <v>69.60095118743496</v>
       </c>
       <c r="K27" t="n">
-        <v>374.836752209575</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L27" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M27" t="n">
-        <v>378.7527182812312</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N27" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O27" t="n">
-        <v>223.1263327599317</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P27" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K30" t="n">
-        <v>110.3715151969964</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L30" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M30" t="n">
-        <v>713.044978343048</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N30" t="n">
         <v>268.4404529330234</v>
@@ -36926,10 +36926,10 @@
         <v>616.9886520366613</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5502034641355</v>
+        <v>215.5634565155256</v>
       </c>
       <c r="Q30" t="n">
-        <v>121.0823690374077</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K33" t="n">
-        <v>110.3715151969964</v>
+        <v>196.3734890164687</v>
       </c>
       <c r="L33" t="n">
-        <v>496.2118907388157</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M33" t="n">
-        <v>713.044978343048</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N33" t="n">
         <v>268.4404529330234</v>
       </c>
       <c r="O33" t="n">
-        <v>223.1263327599317</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P33" t="n">
         <v>478.0129721040727</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K36" t="n">
-        <v>374.836752209575</v>
+        <v>250.621779883607</v>
       </c>
       <c r="L36" t="n">
-        <v>428.1866308685325</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M36" t="n">
-        <v>247.3399145930481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7828272765769</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O36" t="n">
         <v>223.1263327599317</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K39" t="n">
-        <v>110.3715151969964</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L39" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M39" t="n">
-        <v>247.3399145930481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N39" t="n">
-        <v>588.9189429969929</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9886520366613</v>
+        <v>291.283093733492</v>
       </c>
       <c r="P39" t="n">
         <v>159.5502034641355</v>
       </c>
       <c r="Q39" t="n">
-        <v>266.3089427234383</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K41" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L41" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M41" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N41" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O41" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P41" t="n">
         <v>503.6907182815191</v>
@@ -37801,7 +37801,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R41" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2222292468144</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L42" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M42" t="n">
-        <v>713.0449783430481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N42" t="n">
-        <v>268.4404529330235</v>
+        <v>704.1315122863008</v>
       </c>
       <c r="O42" t="n">
         <v>616.9886520366613</v>
@@ -37877,7 +37877,7 @@
         <v>159.5502034641355</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L43" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M43" t="n">
         <v>241.590172472302</v>
@@ -37956,7 +37956,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L44" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M44" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N44" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O44" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P44" t="n">
         <v>503.6907182815191</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.2489751772782</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K45" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L45" t="n">
-        <v>226.9468041311106</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M45" t="n">
-        <v>713.0449783430481</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N45" t="n">
-        <v>747.782827276577</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O45" t="n">
-        <v>223.1263327599318</v>
+        <v>458.1247677570772</v>
       </c>
       <c r="P45" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.23165498758931</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L46" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M46" t="n">
         <v>241.590172472302</v>
@@ -38193,7 +38193,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
